--- a/biology/Histoire de la zoologie et de la botanique/Frère_Ogérien/Frère_Ogérien.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frère_Ogérien/Frère_Ogérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Og%C3%A9rien</t>
+          <t>Frère_Ogérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Auguste Célestin Étienne, connu sous son nom de religieux catholique romain, Frère Ogérien (né à Gresse, Isère, en 1825 et mort à Manhattanville, près de New York, en 1869) est un naturaliste et un géologue[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Auguste Célestin Étienne, connu sous son nom de religieux catholique romain, Frère Ogérien (né à Gresse, Isère, en 1825 et mort à Manhattanville, près de New York, en 1869) est un naturaliste et un géologue.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Og%C3%A9rien</t>
+          <t>Frère_Ogérien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,56 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Célestin Étienne est né le 9 décembre 1825 à l'Église, un hameau de Gresse, de Jean Étienne, un laboureur, et Marie Anne ou Marianne Reboul[3]. Les Annales Franc-comtoises indiquent quant à elles qu'il serait né « au château de Gresse (Isère), d'une famille honorable et riche »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Célestin Étienne est né le 9 décembre 1825 à l'Église, un hameau de Gresse, de Jean Étienne, un laboureur, et Marie Anne ou Marianne Reboul. Les Annales Franc-comtoises indiquent quant à elles qu'il serait né « au château de Gresse (Isère), d'une famille honorable et riche ».
 Le 18 avril 1844, à l'âge de 18 ans, il entra au noviciat de Lyon chez les frères des écoles chrétiennes et reçut alors son nom de frère Ogérien.
 En 1854, Jean-Auguste Étienne à l'âge d'à peine 29 ans, son ordre lui confia la direction des écoles de la congrégation à Lons-le-Saunier.
 Il y resta 13 ans. Sa santé allant s'altérant, il passa une saison à Vichy, puis partit pour Lyon, organiser les cabinets de curiosités de quelques pensionnats du lieu.
-En 1857, la Société d'émulation du Jura abandonne son musée et sa bibliothèque à la ville de Lons-le-Saunier et Frère Ogérien est nommé conservateur-adjoint, auprès du conservateur Nicolas Piard, pour l’Histoire Naturelle et la Minéralogie[5].
-Il présenta lors de l'Exposition de 1860, deux cartes agronomiques du Jura qui lui valurent une médaille d'or[6].
+En 1857, la Société d'émulation du Jura abandonne son musée et sa bibliothèque à la ville de Lons-le-Saunier et Frère Ogérien est nommé conservateur-adjoint, auprès du conservateur Nicolas Piard, pour l’Histoire Naturelle et la Minéralogie.
+Il présenta lors de l'Exposition de 1860, deux cartes agronomiques du Jura qui lui valurent une médaille d'or.
 En avril 1869, il fut désigné pour accompagner un frère-visiteur dans une tournée d'inspection aux États-Unis. Ils arrivent le 8 mai au Manhattanville-collège de New-York, tenu par son ordre religieux. Il reste quelque temps à Saint-Louis.
-Il meurt d'une apoplexie le 15 décembre 1869, au collège de Manhattanville, à l'âge de 44 ans[7].
+Il meurt d'une apoplexie le 15 décembre 1869, au collège de Manhattanville, à l'âge de 44 ans.
 Son grand-œuvre est l'édition de l’Histoire naturelle du Jura et des départements voisins qu'il édita  et qu'il rédigea en majorité. Il confia la rédaction de la partie botanique à Eugène Michalet, et après le décès de celui-ci au botaniste Charles Grenier.
-Académies et sociétés savantes
-Il fut membre de nombreuses académies, sociétés savantes et comités, et particulièrement :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Frère_Ogérien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_Og%C3%A9rien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Académies et sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il fut membre de nombreuses académies, sociétés savantes et comités, et particulièrement :
 en 1855 : Société d'émulation du Jura ;
 en 1857 : Société géologique de France ;
 en 1858 : Société d'émulation du Doubs ;
@@ -533,45 +582,81 @@
 en 1864 : Société météorologique de France ;
 en 1868 : Académie de Mâcon ;
 en 1868 : Académie Delphinale ;
-en 1868 : Société impériale et centrale d'agriculture de France.
-Espèces décrites
-Il décrit, avec Edmond Guirand, le coquillage fossile Columbellaria aloysia (Guirand &amp; Ogérien, 1865)[8].
-Il décrit un vairon montagnard qu'il nomme Phoxinus montanus, depuis réaffecté à une simple variété du vairon : Phoxinus laevis, var. montanus[9].
+en 1868 : Société impériale et centrale d'agriculture de France.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frère_Ogérien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_Og%C3%A9rien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces décrites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il décrit, avec Edmond Guirand, le coquillage fossile Columbellaria aloysia (Guirand &amp; Ogérien, 1865).
+Il décrit un vairon montagnard qu'il nomme Phoxinus montanus, depuis réaffecté à une simple variété du vairon : Phoxinus laevis, var. montanus.
 Il décrit deux variétés du loup commun (Canis lupus lupus) : Canis lupus major (Ogérien, 1863) et Canis lupus minor (Ogérien, 1863).
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fr%C3%A8re_Og%C3%A9rien</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frère_Ogérien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_Og%C3%A9rien</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Histoire naturelle du Jura et des départements voisins, chez Victor Masson à Paris :
-Tome 1 : Géologie ; 1er fascicule : Géographie physique, hydrographie, météorologie, agriculture minérale, minéralogie, pétrologie et paléontologie, 1865, 384 + 27 p. &amp; 1 carte, (en coédition avec Lons-Le-Saunier : A. Robert &amp; Gauthier frères ; Besançon : J. Jacquin.) [3]
-Tome 2 : Géologie ;  2e fascicule : Géologie proprement dite, 1867, avec 636 figures intercalées [4] &amp; une carte géologique du département du Jura au 1/160.000, (en coédition avec Lons-Le-Saunier : A. Robert &amp; Gauthier frères.) [5] [6]
-Tome 3 : Zoologie vivante, (en coédition avec Lons-Le-Saunier : A. Robert &amp; Gauthier frères ; Besançon : J. Jacquin.), 1863 [7] [8]
+Tome 1 : Géologie ; 1er fascicule : Géographie physique, hydrographie, météorologie, agriculture minérale, minéralogie, pétrologie et paléontologie, 1865, 384 + 27 p. &amp; 1 carte, (en coédition avec Lons-Le-Saunier : A. Robert &amp; Gauthier frères ; Besançon : J. Jacquin.) 
+Tome 2 : Géologie ;  2e fascicule : Géologie proprement dite, 1867, avec 636 figures intercalées  &amp; une carte géologique du département du Jura au 1/160.000, (en coédition avec Lons-Le-Saunier : A. Robert &amp; Gauthier frères.)  
+Tome 3 : Zoologie vivante, (en coédition avec Lons-Le-Saunier : A. Robert &amp; Gauthier frères ; Besançon : J. Jacquin.), 1863  
 Mémoire sur la découverte de la craie supérieure à silex dans le département du Jura, avec Jacques Bonjour &amp; Jacques-Eugène Defranoux, 1858
 Note sur la carrière de pierre à taille et à marbre de Molessard (Jura), Lons-le-Saunier : Gauthier frères, 1863.
 Terrain diluvien dans le Jura, Lons-le-Saunier : Gauthier frères, 1865, 77 p.
